--- a/자유수강권/논술1(교재).xlsx
+++ b/자유수강권/논술1(교재).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="87">
   <si>
     <t>주야</t>
   </si>
@@ -103,6 +103,12 @@
     <t>선윤원</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>한준석</t>
+  </si>
+  <si>
     <t>2학년</t>
   </si>
   <si>
@@ -169,9 +175,6 @@
     <t>3학년</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>정다영</t>
   </si>
   <si>
@@ -181,6 +184,18 @@
     <t>김사랑</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>전보현</t>
+  </si>
+  <si>
+    <t>신서현</t>
+  </si>
+  <si>
+    <t>최예소</t>
+  </si>
+  <si>
     <t>4학년</t>
   </si>
   <si>
@@ -218,9 +233,6 @@
   </si>
   <si>
     <t>권순효</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>홍진형</t>
@@ -631,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -855,16 +867,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -881,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -907,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -933,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -959,16 +971,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -985,13 +997,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>40</v>
@@ -1011,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1037,16 +1049,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -1063,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>45</v>
@@ -1089,16 +1101,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1115,16 +1127,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1141,13 +1153,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
@@ -1167,16 +1179,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1193,16 +1205,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1219,16 +1231,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1245,16 +1257,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1271,16 +1283,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1297,16 +1309,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1323,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -1349,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>63</v>
@@ -1375,16 +1387,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1401,16 +1413,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1427,16 +1439,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1453,16 +1465,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1479,10 +1491,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
@@ -1505,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1531,16 +1543,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1557,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -1583,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -1609,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -1635,16 +1647,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1661,16 +1673,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -1687,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -1713,13 +1725,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>82</v>
@@ -1731,6 +1743,110 @@
         <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.5">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.5">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.5">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.5">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
